--- a/elementy.xlsx
+++ b/elementy.xlsx
@@ -74,8 +74,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -85,11 +87,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,7 +426,7 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
